--- a/Data Files/Input Validation/Auto_GeStamp_TC01.xlsx
+++ b/Data Files/Input Validation/Auto_GeStamp_TC01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359680E-F99E-49BE-881B-D83D012FEE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F3252E-374A-4655-B1D3-653F267C046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2025" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -209,12 +209,6 @@
     <t>หมู่บ้านรื่นรนย์</t>
   </si>
   <si>
-    <t>ตำบลหนองใหญ่</t>
-  </si>
-  <si>
-    <t>อำเภอหนองใหญ่</t>
-  </si>
-  <si>
     <t>จังหวัดนนทบุรี</t>
   </si>
   <si>
@@ -242,10 +236,16 @@
     <t>Auto40_</t>
   </si>
   <si>
-    <t>2024-01-16</t>
+    <t>2024-04-16</t>
   </si>
   <si>
-    <t>asd5kj88achh</t>
+    <t>a5acgggasd</t>
+  </si>
+  <si>
+    <t>ตำบลหนองใหญ่1</t>
+  </si>
+  <si>
+    <t>อำเภอหนองใหญ่2</t>
   </si>
 </sst>
 </file>
@@ -612,8 +612,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
   <sheetData>
     <row r="1" spans="1:50 16383:16383" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>17</v>
@@ -809,13 +809,13 @@
     </row>
     <row r="2" spans="1:50 16383:16383" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -858,7 +858,7 @@
         <v>52</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>43</v>
@@ -884,19 +884,19 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>44</v>
@@ -908,13 +908,13 @@
         <v>49</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
